--- a/biology/Zoologie/Euripus_robustus/Euripus_robustus.xlsx
+++ b/biology/Zoologie/Euripus_robustus/Euripus_robustus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euripus robustus est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Apaturinae et au genre Euripus.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euripus robustus a été nommé par Wallace en 1869.
-Synonyme : Euripus holofernes Staudinger, 1886[1].
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euripus robustus a été nommé par Wallace en 1869.
+Synonyme : Euripus holofernes Staudinger, 1886.
+</t>
         </is>
       </c>
     </row>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,12 +582,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Asie du Sud-Est, au Sulawesi.
+</t>
         </is>
       </c>
     </row>
@@ -596,41 +615,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent en Asie du Sud-Est, au Sulawesi[1].
-Biotope</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Euripus_robustus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euripus_robustus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Statut</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
